--- a/testDataRepository/testDataSYS.xlsx
+++ b/testDataRepository/testDataSYS.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8380857-1900-46FD-8532-A3A06F606D90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre.esteves\git\SOI\testDataRepository\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76DC58E-2CFA-4EB2-8D0F-732A005C8265}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environments_OnGoing" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
     <sheet name="ECS" sheetId="10" r:id="rId10"/>
     <sheet name="D03NonQuotableProducts" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -495,7 +500,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,17 +955,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.28515625" customWidth="1"/>
     <col min="2" max="2" width="108.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -968,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -976,7 +981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -984,7 +989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
@@ -992,7 +997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
@@ -1000,7 +1005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
@@ -1008,7 +1013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
@@ -1016,7 +1021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
@@ -1024,7 +1029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
@@ -1032,7 +1037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
@@ -1040,7 +1045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
@@ -1048,7 +1053,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
@@ -1056,7 +1061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>24</v>
       </c>
@@ -1086,12 +1091,12 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
@@ -1116,12 +1121,12 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="25.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>149</v>
       </c>
@@ -1146,11 +1151,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E09D8EE-9029-4D9F-82FC-4FCE1A69DE3A}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
+    <sheetView topLeftCell="E9" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="40.140625" customWidth="1"/>
@@ -1158,7 +1163,7 @@
     <col min="6" max="6" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1172,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" customHeight="1">
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -1186,7 +1191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -1200,7 +1205,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1212,7 +1217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
@@ -1224,7 +1229,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
@@ -1236,7 +1241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1248,7 +1253,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="7"/>
       <c r="E8" s="11" t="s">
@@ -1258,7 +1263,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="7"/>
       <c r="E9" s="11" t="s">
@@ -1268,7 +1273,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
@@ -1280,7 +1285,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
@@ -1292,7 +1297,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -1304,7 +1309,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
@@ -1316,7 +1321,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>46</v>
       </c>
@@ -1330,7 +1335,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>48</v>
       </c>
@@ -1344,7 +1349,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>49</v>
       </c>
@@ -1356,7 +1361,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
@@ -1368,7 +1373,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
@@ -1378,7 +1383,7 @@
       </c>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>53</v>
       </c>
@@ -1404,13 +1409,13 @@
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>54</v>
       </c>
@@ -1426,7 +1431,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>56</v>
       </c>
@@ -1434,7 +1439,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>58</v>
       </c>
@@ -1442,7 +1447,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>60</v>
       </c>
@@ -1450,7 +1455,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>62</v>
       </c>
@@ -1458,7 +1463,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -1466,7 +1471,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>66</v>
       </c>
@@ -1474,7 +1479,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>68</v>
       </c>
@@ -1482,7 +1487,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -1490,7 +1495,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>72</v>
       </c>
@@ -1498,7 +1503,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>74</v>
       </c>
@@ -1506,7 +1511,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>76</v>
       </c>
@@ -1514,7 +1519,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>78</v>
       </c>
@@ -1522,7 +1527,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>80</v>
       </c>
@@ -1530,7 +1535,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>82</v>
       </c>
@@ -1538,7 +1543,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>84</v>
       </c>
@@ -1546,7 +1551,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>86</v>
       </c>
@@ -1554,7 +1559,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>88</v>
       </c>
@@ -1562,7 +1567,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>90</v>
       </c>
@@ -1570,7 +1575,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>92</v>
       </c>
@@ -1578,7 +1583,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>94</v>
       </c>
@@ -1586,7 +1591,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>96</v>
       </c>
@@ -1594,7 +1599,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>98</v>
       </c>
@@ -1602,7 +1607,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>100</v>
       </c>
@@ -1610,7 +1615,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>102</v>
       </c>
@@ -1618,7 +1623,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>104</v>
       </c>
@@ -1626,7 +1631,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>106</v>
       </c>
@@ -1634,7 +1639,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>108</v>
       </c>
@@ -1642,7 +1647,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>110</v>
       </c>
@@ -1650,7 +1655,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>112</v>
       </c>
@@ -1658,7 +1663,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>114</v>
       </c>
@@ -1666,7 +1671,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>116</v>
       </c>
@@ -1674,7 +1679,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>118</v>
       </c>
@@ -1682,7 +1687,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>120</v>
       </c>
@@ -1690,7 +1695,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>122</v>
       </c>
@@ -1698,7 +1703,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>124</v>
       </c>
@@ -1717,13 +1722,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>126</v>
       </c>
@@ -1739,7 +1744,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>128</v>
       </c>
@@ -1747,7 +1752,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>130</v>
       </c>
@@ -1755,7 +1760,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>132</v>
       </c>
@@ -1763,7 +1768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>133</v>
       </c>
@@ -1771,7 +1776,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>135</v>
       </c>
@@ -1779,7 +1784,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>137</v>
       </c>
@@ -1787,7 +1792,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>139</v>
       </c>
@@ -1795,7 +1800,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>141</v>
       </c>
@@ -1803,7 +1808,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="36.75" customHeight="1">
+    <row r="11" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>143</v>
       </c>
@@ -1811,7 +1816,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>145</v>
       </c>
@@ -1832,9 +1837,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1855,9 +1860,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1878,13 +1883,13 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="67.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1892,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="25.5">
+    <row r="2" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>147</v>
       </c>
@@ -1913,9 +1918,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1936,9 +1941,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
